--- a/Systems Engineering/work2/pattern_data_clean.xlsx
+++ b/Systems Engineering/work2/pattern_data_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\TeX-Folder\Systems Engineering\work2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29BDC6F8-57CC-43EA-A75A-59C1761B399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE8D7D9-147C-4F51-B2F2-3D731944DE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{1E1DC76B-653C-4D09-9BC4-512D39417D63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{5CFA44FD-8623-4BF8-8929-117CD11E8A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="pattern_data_clean" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>蝓ｺ譚ｿ繧ｵ繝ｳ繝励ΝNo.</t>
+    <t>基板サンプルNo.</t>
   </si>
   <si>
-    <t>繝代ち繝ｼ繝ｳ繧√▲縺榊字_um</t>
+    <t>パターンめっき厚_um</t>
   </si>
   <si>
-    <t>繝代ち繝ｼ繝ｳ蟷・um</t>
+    <t>パターン幅_um</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F2CEF-101F-4211-8E52-A41EFBADB779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068A850-8F6B-4957-BB0C-A9890F36FF4A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
